--- a/多源数据特征级融合方法相关论文收集与人工分类结果.xlsx
+++ b/多源数据特征级融合方法相关论文收集与人工分类结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Desktop\毕业论文\毕业论文改小论文\综述\正式投稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBECAE-001F-4C10-B5BD-0D9515BDF53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B51CE0-7F8B-4BB6-A015-64F81A816776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7CC46B8-BBFA-49D5-B291-54545EE70A43}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="169">
   <si>
     <t>Deep learning-based sentiment classification of evaluative text based on Multi-feature fusion</t>
   </si>
@@ -351,22 +351,10 @@
     <t>主观赋权法</t>
   </si>
   <si>
-    <t>异构信息网络方法</t>
-  </si>
-  <si>
     <t>统计赋权法</t>
   </si>
   <si>
-    <t>特征拼接法</t>
-  </si>
-  <si>
     <t>穷举赋权法</t>
-  </si>
-  <si>
-    <t>混合方法</t>
-  </si>
-  <si>
-    <t>非线性算法</t>
   </si>
   <si>
     <t>序号</t>
@@ -590,6 +578,21 @@
   </si>
   <si>
     <t>C:\Users\Oliver\Desktop\毕业论文\毕业论文改小论文\综述\修改1\图片\图7.png</t>
+  </si>
+  <si>
+    <t>特征拼接融合法</t>
+  </si>
+  <si>
+    <t>主观赋权融合法</t>
+  </si>
+  <si>
+    <t>异构信息网络融合法</t>
+  </si>
+  <si>
+    <t>非线性融合法</t>
+  </si>
+  <si>
+    <t>混合融合发法</t>
   </si>
 </sst>
 </file>
@@ -3583,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B00D40B-F88B-4B30-A406-6348A0E23CF4}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3601,10 +3604,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>36</v>
@@ -3613,13 +3616,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -3627,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>37</v>
@@ -3639,10 +3642,10 @@
         <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -3650,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -3659,10 +3662,10 @@
         <v>2014</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>94</v>
@@ -3670,102 +3673,102 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2015</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>81</v>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="16">
-        <v>2015</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>2016</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>37</v>
@@ -3774,21 +3777,21 @@
         <v>2016</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>37</v>
@@ -3797,102 +3800,102 @@
         <v>2016</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13">
         <v>2017</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="12">
         <v>2017</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>13</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="12">
         <v>2017</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>96</v>
@@ -3900,160 +3903,160 @@
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2017</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>2018</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>55</v>
+      <c r="E15" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12">
         <v>2018</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2018</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2019</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12">
         <v>2019</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="13">
         <v>2019</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>23</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="13">
         <v>2019</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>95</v>
@@ -4061,45 +4064,45 @@
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="12">
         <v>2019</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="13">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12">
         <v>2019</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>115</v>
+      <c r="E22" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>96</v>
@@ -4107,160 +4110,160 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="13">
-        <v>2019</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2020</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>25</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>116</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
-        <v>2019</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>117</v>
+      <c r="D25" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>26</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="13">
-        <v>2019</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>27</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="13">
-        <v>2019</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>15</v>
+      <c r="D27" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>120</v>
+        <v>44</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17">
-        <v>2020</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>117</v>
+      <c r="D29" s="14">
+        <v>2021</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>94</v>
@@ -4268,792 +4271,792 @@
     </row>
     <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2021</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>35</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>109</v>
+      <c r="D31" s="18">
+        <v>2021</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>34</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>109</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2021</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>122</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>123</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2022</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>36</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>109</v>
+      <c r="D36" s="13">
+        <v>2022</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>37</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>14</v>
+      <c r="D37" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>30</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>117</v>
+        <v>2022</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
+        <v>76</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>14</v>
+      <c r="D39" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>117</v>
+      <c r="D40" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>17</v>
+      <c r="D41" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="18">
-        <v>2020</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>15</v>
+      <c r="D42" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>14</v>
+        <v>101</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>127</v>
+        <v>99</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="14">
-        <v>2021</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>117</v>
+        <v>38</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>51</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="16">
-        <v>2021</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2014</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
-        <v>47</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D47" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>109</v>
+        <v>2019</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
-        <v>52</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>29</v>
+      <c r="D48" s="18">
+        <v>2019</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>53</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D49" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>18</v>
+        <v>2019</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="13">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D51" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>117</v>
+        <v>2019</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>56</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>131</v>
+        <v>35</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>119</v>
+      <c r="D52" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>97</v>
+      <c r="G52" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>57</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>132</v>
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>119</v>
+      <c r="D53" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>58</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>67</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>72</v>
+      <c r="B55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>68</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>97</v>
+      <c r="G56" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>45</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>133</v>
+        <v>39</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="18">
-        <v>2021</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>115</v>
+      <c r="D57" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
-        <v>46</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="13">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>59</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="13">
-        <v>2021</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>18</v>
+      <c r="D59" s="18">
+        <v>2020</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>60</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>135</v>
+        <v>42</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>61</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>62</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="12">
+        <v>51</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="16">
         <v>2021</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>111</v>
+      <c r="E62" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>63</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="12">
+        <v>52</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="13">
         <v>2021</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>111</v>
+      <c r="E63" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>64</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>38</v>
@@ -5061,68 +5064,68 @@
       <c r="D64" s="13">
         <v>2021</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>14</v>
+      <c r="E64" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
-        <v>65</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="16">
+        <v>54</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="13">
         <v>2021</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>66</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="16">
+        <v>55</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="13">
         <v>2021</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>15</v>
+      <c r="E66" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>37</v>
@@ -5131,44 +5134,44 @@
         <v>2021</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>49</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>141</v>
+        <v>57</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="13">
         <v>2021</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>109</v>
+      <c r="E68" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
-        <v>50</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>142</v>
+        <v>58</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>37</v>
@@ -5176,298 +5179,298 @@
       <c r="D69" s="12">
         <v>2021</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>119</v>
+      <c r="E69" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
-        <v>69</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
-        <v>79</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>143</v>
+        <v>68</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="17">
-        <v>2022</v>
+      <c r="D71" s="12">
+        <v>2021</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
-        <v>80</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="17">
-        <v>2022</v>
+        <v>59</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="13">
+        <v>2021</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
-        <v>72</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>148</v>
+        <v>62</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="13">
-        <v>2022</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>149</v>
+      <c r="D75" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
-        <v>73</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="13">
-        <v>2022</v>
+      <c r="D76" s="12">
+        <v>2021</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>74</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="12">
-        <v>2022</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>49</v>
+      <c r="D77" s="13">
+        <v>2021</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="12">
-        <v>2022</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>52</v>
+      <c r="D78" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>76</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="12">
-        <v>2022</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>81</v>
+      <c r="D79" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>81</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>151</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="17">
         <v>2022</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>152</v>
+      <c r="E80" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>82</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="17">
         <v>2022</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>37</v>
@@ -5475,22 +5478,22 @@
       <c r="D82" s="12">
         <v>2022</v>
       </c>
-      <c r="E82" s="18" t="s">
-        <v>117</v>
+      <c r="E82" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>37</v>
@@ -5499,44 +5502,44 @@
         <v>2022</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
-        <v>93</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="12">
+        <v>82</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="13">
         <v>2022</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>37</v>
@@ -5544,91 +5547,91 @@
       <c r="D85" s="12">
         <v>2022</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>69</v>
+      <c r="E85" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
-        <v>95</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="13">
         <v>2022</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>72</v>
+      <c r="E86" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D87" s="12">
         <v>2022</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
-        <v>97</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" s="17">
+      <c r="A88" s="12">
+        <v>94</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="12">
         <v>2022</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="14" t="s">
+      <c r="E88" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>97</v>
+      <c r="G88" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>37</v>
@@ -5637,243 +5640,243 @@
         <v>2022</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
-        <v>85</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="12">
         <v>2022</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>99</v>
+      <c r="G90" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
-        <v>86</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="14">
+      <c r="A91" s="17">
+        <v>97</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="17">
         <v>2022</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F91" s="13" t="s">
+      <c r="E91" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G91" s="12" t="s">
-        <v>99</v>
+      <c r="G91" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D92" s="17">
         <v>2022</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>119</v>
+      <c r="E92" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
-        <v>88</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>158</v>
+        <v>86</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="14">
         <v>2022</v>
       </c>
-      <c r="E93" s="12" t="s">
-        <v>152</v>
+      <c r="E93" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G93" s="13" t="s">
-        <v>100</v>
+      <c r="G93" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
-        <v>89</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>159</v>
+        <v>87</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="17">
         <v>2022</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>111</v>
+      <c r="E94" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>100</v>
+      <c r="G94" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
-        <v>90</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>160</v>
+        <v>88</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="12">
         <v>2022</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
-        <v>91</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="18">
+        <v>89</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="12">
         <v>2022</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>14</v>
+      <c r="E96" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
-        <v>92</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="16">
+        <v>90</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="13">
         <v>2022</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>15</v>
+      <c r="E97" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
-        <v>77</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="12">
+        <v>91</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="18">
         <v>2022</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>53</v>
+      <c r="E98" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="12">
-        <v>2023</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>18</v>
+      <c r="D99" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
@@ -5896,7 +5899,7 @@
         <v>33</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -5919,173 +5922,173 @@
         <v>33</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
-        <v>100</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="16">
         <v>2023</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>89</v>
+      <c r="E102" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
-        <v>101</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="18">
+        <v>106</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="16">
         <v>2023</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>55</v>
+      <c r="E103" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
-        <v>102</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" s="12">
+        <v>107</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="16">
         <v>2023</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>64</v>
+      <c r="E104" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
-        <v>105</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D105" s="16">
-        <v>2023</v>
+        <v>48</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="13">
+        <v>2021</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
-        <v>99</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="12">
-        <v>2023</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="D106" s="18">
+        <v>2021</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
-        <v>106</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D107" s="16">
-        <v>2023</v>
+        <v>50</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="12">
+        <v>2021</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
-        <v>107</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="16">
-        <v>2023</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G109">
-    <sortCondition ref="D1:D109"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G108">
+    <sortCondition descending="1" ref="F1:F108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6285,23 +6288,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
